--- a/plots/reordering.xlsx
+++ b/plots/reordering.xlsx
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188E09D2-6E0D-914A-BFD8-757B5AA57EF1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977505D1-1F20-1345-A6D4-FA61AC042B61}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{C5ACF21D-1DAD-FA4E-92BD-B7FD6D08045E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C5ACF21D-1DAD-FA4E-92BD-B7FD6D08045E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$1677</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$1677</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$1677</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$2:$D$1677</definedName>
     <definedName name="reordering_out" localSheetId="0">Sheet1!$A$2:$B$1677</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,8 +36,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{A0A16A75-137B-1F4A-91F5-17547166BF54}" name="reordering_out" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tobiasba/repos/experimentscripts/out/reordering_out.csv" thousands="'" tab="0" comma="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="reordering_out" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/tobiasba/repos/experimentscripts/out/reordering_out.csv" thousands="'" tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -122,6 +129,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Reordering</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -30528,6 +30560,31 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -30621,6 +30678,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>%</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -30701,6 +30783,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77912029746281719"/>
+          <c:y val="0.40153834937299504"/>
+          <c:w val="0.20421303587051617"/>
+          <c:h val="0.32696923301254011"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -31372,7 +31464,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="reordering_out" connectionId="1" xr16:uid="{DE8967F0-0FBE-3848-BB96-55B8980A5822}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="reordering_out" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31674,8 +31766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BD6E05-052F-474B-87D7-A78A927891B0}">
   <dimension ref="A1:D1677"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/plots/reordering.xlsx
+++ b/plots/reordering.xlsx
@@ -8,21 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977505D1-1F20-1345-A6D4-FA61AC042B61}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEED964-F21E-F841-9602-2D32858EBC83}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C5ACF21D-1DAD-FA4E-92BD-B7FD6D08045E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{C5ACF21D-1DAD-FA4E-92BD-B7FD6D08045E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$1677</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$1677</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$1677</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$2:$D$1677</definedName>
     <definedName name="reordering_out" localSheetId="0">Sheet1!$A$2:$B$1677</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -56,10 +49,10 @@
     <t>Reordering</t>
   </si>
   <si>
-    <t>Actual</t>
+    <t>Mean</t>
   </si>
   <si>
-    <t>Mean</t>
+    <t>Introduced</t>
   </si>
 </sst>
 </file>
@@ -135,7 +128,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -148,8 +141,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Reordering</a:t>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Packet Reordering</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -167,7 +160,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -10315,7 +10308,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Actual</c:v>
+                  <c:v>Introduced</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -30566,7 +30559,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -30579,7 +30572,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>s</a:t>
                 </a:r>
               </a:p>
@@ -30598,7 +30591,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -30684,7 +30677,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -30697,7 +30690,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>%</a:t>
                 </a:r>
               </a:p>
@@ -30716,7 +30709,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -30787,8 +30780,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.77912029746281719"/>
-          <c:y val="0.40153834937299504"/>
+          <c:x val="0.75414873935309734"/>
+          <c:y val="0.40153841880876001"/>
           <c:w val="0.20421303587051617"/>
           <c:h val="0.32696923301254011"/>
         </c:manualLayout>
@@ -30806,7 +30799,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -30838,12 +30831,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -31432,10 +31420,10 @@
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -31766,8 +31754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BD6E05-052F-474B-87D7-A78A927891B0}">
   <dimension ref="A1:D1677"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31784,10 +31772,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
